--- a/11/1/2/Ventas de vivienda 2010 a 2021 - Anual.xlsx
+++ b/11/1/2/Ventas de vivienda 2010 a 2021 - Anual.xlsx
@@ -533,6 +533,9 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11">
+        <v>62978</v>
+      </c>
       <c r="C11">
         <v>31597</v>
       </c>
@@ -540,6 +543,9 @@
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
+      </c>
+      <c r="B12">
+        <v>48322</v>
       </c>
       <c r="C12">
         <v>22672</v>
